--- a/biology/Zoologie/Hespérie_du_marrube/Hespérie_du_marrube.xlsx
+++ b/biology/Zoologie/Hespérie_du_marrube/Hespérie_du_marrube.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_du_marrube</t>
+          <t>Hespérie_du_marrube</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carcharodus floccifer
 L’Hespérie du marrube (Carcharodus floccifer) est une espèce de lépidoptères (papillons) de la famille des Hesperiidae et de la sous-famille des Pyrginae. L'épithète spécifique vient de floccus (= « flocon de laine »)  et du verbe ferre (= « porter »).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_du_marrube</t>
+          <t>Hespérie_du_marrube</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,14 +524,13 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Carcharodus floccifer a été décrit par Philipp Christoph Zeller en 1840 sous le protonyme Hesperia floccifera[1].
-On rencontre souvent les combinaisons Carcharodus flocciferus et Carcharodus floccifera, considérées comme fautives[2].
-Noms vernaculaires
-en français : l'Hespérie du marrube, la Lisette
-en anglais : Tufted Skipper
-en espagnol : Piquitos serrana[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carcharodus floccifer a été décrit par Philipp Christoph Zeller en 1840 sous le protonyme Hesperia floccifera.
+On rencontre souvent les combinaisons Carcharodus flocciferus et Carcharodus floccifera, considérées comme fautives.
+</t>
         </is>
       </c>
     </row>
@@ -529,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_du_marrube</t>
+          <t>Hespérie_du_marrube</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,13 +555,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est un papillon au dessus tacheté de marron foncé et de gris violacé orné de marques blanches[3].
-</t>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>en français : l'Hespérie du marrube, la Lisette
+en anglais : Tufted Skipper
+en espagnol : Piquitos serrana.</t>
         </is>
       </c>
     </row>
@@ -560,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_du_marrube</t>
+          <t>Hespérie_du_marrube</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,15 +593,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole une deux générations suivant sa localisation[3] entre mai et août.
-Plantes hôtes
-Les plantes hôtes de la chenille sont des Marrubium, dont Marrubium vulgare et Marrubium peregrinum, ainsi que des Stachys : Stachys officinalis, Stachys recta et Stachys roegneri[1],[3].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un papillon au dessus tacheté de marron foncé et de gris violacé orné de marques blanches.
 </t>
         </is>
       </c>
@@ -594,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_du_marrube</t>
+          <t>Hespérie_du_marrube</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,17 +626,163 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole une deux générations suivant sa localisation entre mai et août.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hespérie_du_marrube</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_du_marrube</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de la chenille sont des Marrubium, dont Marrubium vulgare et Marrubium peregrinum, ainsi que des Stachys : Stachys officinalis, Stachys recta et Stachys roegneri,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hespérie_du_marrube</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_du_marrube</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce réside sous forme de petits isolats à travers l'Europe, notamment en Espagne, France, Suisse, Autriche, Italie, Bulgarie et Grèce. Elle est aussi présente au Maroc, en Turquie, au Moyen-Orient jusque dans le Sud de la Sibérie[1].
-En France, elle est principalement présente dans les Alpes, le Massif central et les Pyrénées, et plus rare en plaine[4].
-Biotope
-L'espèce fréquente les pentes et vallons rocheux[3], les friches, souvent dans des régions de relief, jusqu'à 2 000 mètres d'altitude.
-Protection
-Pas de statut de protection particulier pour la France[5]. Protégé en Allemagne[6].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce réside sous forme de petits isolats à travers l'Europe, notamment en Espagne, France, Suisse, Autriche, Italie, Bulgarie et Grèce. Elle est aussi présente au Maroc, en Turquie, au Moyen-Orient jusque dans le Sud de la Sibérie.
+En France, elle est principalement présente dans les Alpes, le Massif central et les Pyrénées, et plus rare en plaine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hespérie_du_marrube</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_du_marrube</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce fréquente les pentes et vallons rocheux, les friches, souvent dans des régions de relief, jusqu'à 2 000 mètres d'altitude.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hespérie_du_marrube</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_du_marrube</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier pour la France. Protégé en Allemagne.
 </t>
         </is>
       </c>
